--- a/static/bbl/data/BBL_Match_Stats_All_Years.xlsx
+++ b/static/bbl/data/BBL_Match_Stats_All_Years.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nztan\Desktop\UWA-Material\2025\Semester 1\CITS3403 - Agile Web Development\Group Project\agile\static\bbl\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C42DBE4-AAA4-4E44-8AEA-6D2944C8523E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -5629,8 +5635,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5706,13 +5712,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5750,7 +5764,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -5784,6 +5798,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -5818,9 +5833,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5993,14 +6009,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G654"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6023,7 +6041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6046,7 +6064,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6069,7 +6087,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6092,7 +6110,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6112,7 +6130,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6135,7 +6153,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6158,7 +6176,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6181,7 +6199,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6204,7 +6222,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6227,7 +6245,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6250,7 +6268,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6273,7 +6291,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6296,7 +6314,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6319,7 +6337,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6342,7 +6360,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6365,7 +6383,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6388,7 +6406,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6411,7 +6429,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6434,7 +6452,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6457,7 +6475,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6477,7 +6495,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6500,7 +6518,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6523,7 +6541,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6546,7 +6564,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6569,7 +6587,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6592,7 +6610,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6615,7 +6633,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6635,7 +6653,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6658,7 +6676,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6681,7 +6699,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6704,7 +6722,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -6727,7 +6745,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -6750,7 +6768,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -6773,7 +6791,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -6796,7 +6814,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -6816,7 +6834,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -6839,7 +6857,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -6862,7 +6880,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6</v>
       </c>
@@ -6885,7 +6903,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>7</v>
       </c>
@@ -6908,7 +6926,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>8</v>
       </c>
@@ -6931,7 +6949,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>9</v>
       </c>
@@ -6954,7 +6972,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10</v>
       </c>
@@ -6977,7 +6995,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>11</v>
       </c>
@@ -7000,7 +7018,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>12</v>
       </c>
@@ -7023,7 +7041,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>13</v>
       </c>
@@ -7046,7 +7064,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -7069,7 +7087,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>15</v>
       </c>
@@ -7089,7 +7107,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>16</v>
       </c>
@@ -7112,7 +7130,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>17</v>
       </c>
@@ -7135,7 +7153,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>18</v>
       </c>
@@ -7158,7 +7176,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>19</v>
       </c>
@@ -7181,7 +7199,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>20</v>
       </c>
@@ -7204,7 +7222,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>21</v>
       </c>
@@ -7227,7 +7245,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>22</v>
       </c>
@@ -7250,7 +7268,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>23</v>
       </c>
@@ -7273,7 +7291,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>24</v>
       </c>
@@ -7296,7 +7314,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>25</v>
       </c>
@@ -7319,7 +7337,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>26</v>
       </c>
@@ -7342,7 +7360,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>27</v>
       </c>
@@ -7365,7 +7383,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>28</v>
       </c>
@@ -7388,7 +7406,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>29</v>
       </c>
@@ -7411,7 +7429,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>30</v>
       </c>
@@ -7434,7 +7452,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>31</v>
       </c>
@@ -7457,7 +7475,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>32</v>
       </c>
@@ -7480,7 +7498,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>33</v>
       </c>
@@ -7503,7 +7521,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>34</v>
       </c>
@@ -7526,7 +7544,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0</v>
       </c>
@@ -7549,7 +7567,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -7572,7 +7590,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
@@ -7595,7 +7613,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>3</v>
       </c>
@@ -7615,7 +7633,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>4</v>
       </c>
@@ -7638,7 +7656,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>5</v>
       </c>
@@ -7661,7 +7679,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>6</v>
       </c>
@@ -7684,7 +7702,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7</v>
       </c>
@@ -7707,7 +7725,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>8</v>
       </c>
@@ -7730,7 +7748,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>9</v>
       </c>
@@ -7753,7 +7771,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>10</v>
       </c>
@@ -7776,7 +7794,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>11</v>
       </c>
@@ -7796,7 +7814,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>12</v>
       </c>
@@ -7819,7 +7837,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>13</v>
       </c>
@@ -7842,7 +7860,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>14</v>
       </c>
@@ -7865,7 +7883,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>15</v>
       </c>
@@ -7888,7 +7906,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>16</v>
       </c>
@@ -7911,7 +7929,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>17</v>
       </c>
@@ -7934,7 +7952,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>18</v>
       </c>
@@ -7957,7 +7975,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>19</v>
       </c>
@@ -7980,7 +7998,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>20</v>
       </c>
@@ -8003,7 +8021,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>21</v>
       </c>
@@ -8023,7 +8041,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>22</v>
       </c>
@@ -8046,7 +8064,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>23</v>
       </c>
@@ -8069,7 +8087,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>24</v>
       </c>
@@ -8092,7 +8110,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>25</v>
       </c>
@@ -8115,7 +8133,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>26</v>
       </c>
@@ -8135,7 +8153,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>27</v>
       </c>
@@ -8158,7 +8176,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>28</v>
       </c>
@@ -8181,7 +8199,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>29</v>
       </c>
@@ -8204,7 +8222,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>30</v>
       </c>
@@ -8227,7 +8245,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>31</v>
       </c>
@@ -8250,7 +8268,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>32</v>
       </c>
@@ -8273,7 +8291,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>33</v>
       </c>
@@ -8296,7 +8314,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>34</v>
       </c>
@@ -8319,7 +8337,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0</v>
       </c>
@@ -8342,7 +8360,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -8365,7 +8383,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2</v>
       </c>
@@ -8388,7 +8406,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>3</v>
       </c>
@@ -8411,7 +8429,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>4</v>
       </c>
@@ -8434,7 +8452,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5</v>
       </c>
@@ -8457,7 +8475,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>6</v>
       </c>
@@ -8480,7 +8498,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>7</v>
       </c>
@@ -8503,7 +8521,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>8</v>
       </c>
@@ -8526,7 +8544,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>9</v>
       </c>
@@ -8549,7 +8567,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>10</v>
       </c>
@@ -8572,7 +8590,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>11</v>
       </c>
@@ -8595,7 +8613,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>12</v>
       </c>
@@ -8618,7 +8636,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>13</v>
       </c>
@@ -8641,7 +8659,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>14</v>
       </c>
@@ -8664,7 +8682,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>15</v>
       </c>
@@ -8687,7 +8705,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>16</v>
       </c>
@@ -8710,7 +8728,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>17</v>
       </c>
@@ -8733,7 +8751,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>18</v>
       </c>
@@ -8756,7 +8774,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>19</v>
       </c>
@@ -8779,7 +8797,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>20</v>
       </c>
@@ -8802,7 +8820,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>21</v>
       </c>
@@ -8825,7 +8843,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>22</v>
       </c>
@@ -8848,7 +8866,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>23</v>
       </c>
@@ -8868,7 +8886,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>24</v>
       </c>
@@ -8891,7 +8909,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>25</v>
       </c>
@@ -8914,7 +8932,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>26</v>
       </c>
@@ -8937,7 +8955,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>27</v>
       </c>
@@ -8960,7 +8978,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>28</v>
       </c>
@@ -8983,7 +9001,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>29</v>
       </c>
@@ -9006,7 +9024,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>30</v>
       </c>
@@ -9029,7 +9047,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>31</v>
       </c>
@@ -9052,7 +9070,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>32</v>
       </c>
@@ -9075,7 +9093,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>33</v>
       </c>
@@ -9098,7 +9116,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>34</v>
       </c>
@@ -9121,7 +9139,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>0</v>
       </c>
@@ -9144,7 +9162,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1</v>
       </c>
@@ -9167,7 +9185,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2</v>
       </c>
@@ -9190,7 +9208,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>3</v>
       </c>
@@ -9213,7 +9231,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>4</v>
       </c>
@@ -9233,7 +9251,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>5</v>
       </c>
@@ -9256,7 +9274,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6</v>
       </c>
@@ -9279,7 +9297,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>7</v>
       </c>
@@ -9302,7 +9320,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>8</v>
       </c>
@@ -9325,7 +9343,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>9</v>
       </c>
@@ -9348,7 +9366,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>10</v>
       </c>
@@ -9371,7 +9389,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>11</v>
       </c>
@@ -9394,7 +9412,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>12</v>
       </c>
@@ -9417,7 +9435,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>13</v>
       </c>
@@ -9440,7 +9458,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>14</v>
       </c>
@@ -9463,7 +9481,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>15</v>
       </c>
@@ -9486,7 +9504,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>16</v>
       </c>
@@ -9506,7 +9524,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>17</v>
       </c>
@@ -9529,7 +9547,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>18</v>
       </c>
@@ -9552,7 +9570,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>19</v>
       </c>
@@ -9575,7 +9593,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>20</v>
       </c>
@@ -9598,7 +9616,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>21</v>
       </c>
@@ -9621,7 +9639,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>22</v>
       </c>
@@ -9644,7 +9662,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>23</v>
       </c>
@@ -9667,7 +9685,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>24</v>
       </c>
@@ -9690,7 +9708,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>25</v>
       </c>
@@ -9710,7 +9728,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>26</v>
       </c>
@@ -9733,7 +9751,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>27</v>
       </c>
@@ -9756,7 +9774,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>28</v>
       </c>
@@ -9779,7 +9797,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>29</v>
       </c>
@@ -9802,7 +9820,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>30</v>
       </c>
@@ -9822,7 +9840,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>31</v>
       </c>
@@ -9845,7 +9863,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>32</v>
       </c>
@@ -9868,7 +9886,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>33</v>
       </c>
@@ -9891,7 +9909,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>34</v>
       </c>
@@ -9914,7 +9932,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>0</v>
       </c>
@@ -9937,7 +9955,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -9960,7 +9978,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2</v>
       </c>
@@ -9983,7 +10001,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>3</v>
       </c>
@@ -10006,7 +10024,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>4</v>
       </c>
@@ -10026,7 +10044,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>5</v>
       </c>
@@ -10049,7 +10067,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>6</v>
       </c>
@@ -10072,7 +10090,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>7</v>
       </c>
@@ -10095,7 +10113,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>8</v>
       </c>
@@ -10118,7 +10136,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>9</v>
       </c>
@@ -10141,7 +10159,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>10</v>
       </c>
@@ -10164,7 +10182,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>11</v>
       </c>
@@ -10187,7 +10205,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>12</v>
       </c>
@@ -10207,7 +10225,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>13</v>
       </c>
@@ -10230,7 +10248,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>14</v>
       </c>
@@ -10253,7 +10271,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>15</v>
       </c>
@@ -10276,7 +10294,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>16</v>
       </c>
@@ -10299,7 +10317,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>17</v>
       </c>
@@ -10322,7 +10340,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>18</v>
       </c>
@@ -10345,7 +10363,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>19</v>
       </c>
@@ -10368,7 +10386,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>20</v>
       </c>
@@ -10391,7 +10409,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>21</v>
       </c>
@@ -10414,7 +10432,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>22</v>
       </c>
@@ -10437,7 +10455,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>23</v>
       </c>
@@ -10460,7 +10478,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>24</v>
       </c>
@@ -10483,7 +10501,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>25</v>
       </c>
@@ -10503,7 +10521,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>26</v>
       </c>
@@ -10526,7 +10544,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>27</v>
       </c>
@@ -10549,7 +10567,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>28</v>
       </c>
@@ -10572,7 +10590,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>29</v>
       </c>
@@ -10595,7 +10613,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>30</v>
       </c>
@@ -10618,7 +10636,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>31</v>
       </c>
@@ -10638,7 +10656,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>32</v>
       </c>
@@ -10661,7 +10679,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>33</v>
       </c>
@@ -10684,7 +10702,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>34</v>
       </c>
@@ -10707,7 +10725,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>35</v>
       </c>
@@ -10715,7 +10733,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>36</v>
       </c>
@@ -10723,7 +10741,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>37</v>
       </c>
@@ -10731,7 +10749,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>38</v>
       </c>
@@ -10739,7 +10757,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>39</v>
       </c>
@@ -10747,7 +10765,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>40</v>
       </c>
@@ -10755,7 +10773,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>41</v>
       </c>
@@ -10763,7 +10781,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>42</v>
       </c>
@@ -10771,7 +10789,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>43</v>
       </c>
@@ -10779,7 +10797,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>44</v>
       </c>
@@ -10787,7 +10805,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>45</v>
       </c>
@@ -10795,7 +10813,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>46</v>
       </c>
@@ -10803,7 +10821,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>47</v>
       </c>
@@ -10811,7 +10829,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>48</v>
       </c>
@@ -10819,7 +10837,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>49</v>
       </c>
@@ -10827,7 +10845,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>50</v>
       </c>
@@ -10835,7 +10853,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>51</v>
       </c>
@@ -10843,7 +10861,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>52</v>
       </c>
@@ -10851,7 +10869,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>53</v>
       </c>
@@ -10859,7 +10877,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>54</v>
       </c>
@@ -10867,7 +10885,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>55</v>
       </c>
@@ -10875,7 +10893,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>56</v>
       </c>
@@ -10883,7 +10901,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>57</v>
       </c>
@@ -10891,7 +10909,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>58</v>
       </c>
@@ -10899,7 +10917,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>59</v>
       </c>
@@ -10907,7 +10925,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>60</v>
       </c>
@@ -10915,7 +10933,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>61</v>
       </c>
@@ -10923,7 +10941,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>62</v>
       </c>
@@ -10931,7 +10949,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>63</v>
       </c>
@@ -10939,7 +10957,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>64</v>
       </c>
@@ -10947,7 +10965,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>65</v>
       </c>
@@ -10955,7 +10973,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>66</v>
       </c>
@@ -10963,7 +10981,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>67</v>
       </c>
@@ -10971,7 +10989,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>68</v>
       </c>
@@ -10979,7 +10997,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>69</v>
       </c>
@@ -10987,7 +11005,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>70</v>
       </c>
@@ -10995,7 +11013,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>71</v>
       </c>
@@ -11003,7 +11021,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>0</v>
       </c>
@@ -11026,7 +11044,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1</v>
       </c>
@@ -11049,7 +11067,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2</v>
       </c>
@@ -11072,7 +11090,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>3</v>
       </c>
@@ -11095,7 +11113,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>4</v>
       </c>
@@ -11118,7 +11136,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>5</v>
       </c>
@@ -11138,7 +11156,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>6</v>
       </c>
@@ -11161,7 +11179,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>7</v>
       </c>
@@ -11184,7 +11202,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>8</v>
       </c>
@@ -11207,7 +11225,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>9</v>
       </c>
@@ -11230,7 +11248,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>10</v>
       </c>
@@ -11253,7 +11271,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>11</v>
       </c>
@@ -11276,7 +11294,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>12</v>
       </c>
@@ -11299,7 +11317,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>13</v>
       </c>
@@ -11319,7 +11337,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>14</v>
       </c>
@@ -11342,7 +11360,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>15</v>
       </c>
@@ -11365,7 +11383,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>16</v>
       </c>
@@ -11388,7 +11406,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>17</v>
       </c>
@@ -11411,7 +11429,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>18</v>
       </c>
@@ -11434,7 +11452,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>19</v>
       </c>
@@ -11457,7 +11475,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>20</v>
       </c>
@@ -11480,7 +11498,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>21</v>
       </c>
@@ -11500,7 +11518,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>22</v>
       </c>
@@ -11523,7 +11541,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>23</v>
       </c>
@@ -11546,7 +11564,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>24</v>
       </c>
@@ -11569,7 +11587,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>25</v>
       </c>
@@ -11592,7 +11610,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>26</v>
       </c>
@@ -11615,7 +11633,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>27</v>
       </c>
@@ -11635,7 +11653,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>28</v>
       </c>
@@ -11658,7 +11676,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>29</v>
       </c>
@@ -11681,7 +11699,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>30</v>
       </c>
@@ -11704,7 +11722,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>31</v>
       </c>
@@ -11727,7 +11745,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>32</v>
       </c>
@@ -11750,7 +11768,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>33</v>
       </c>
@@ -11770,7 +11788,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>34</v>
       </c>
@@ -11793,7 +11811,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>35</v>
       </c>
@@ -11816,7 +11834,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>36</v>
       </c>
@@ -11839,7 +11857,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>37</v>
       </c>
@@ -11862,7 +11880,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>38</v>
       </c>
@@ -11885,7 +11903,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>39</v>
       </c>
@@ -11905,7 +11923,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>40</v>
       </c>
@@ -11928,7 +11946,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>41</v>
       </c>
@@ -11951,7 +11969,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>42</v>
       </c>
@@ -11974,7 +11992,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>0</v>
       </c>
@@ -11997,7 +12015,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1</v>
       </c>
@@ -12020,7 +12038,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2</v>
       </c>
@@ -12043,7 +12061,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>3</v>
       </c>
@@ -12066,7 +12084,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>4</v>
       </c>
@@ -12086,7 +12104,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>5</v>
       </c>
@@ -12109,7 +12127,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>6</v>
       </c>
@@ -12132,7 +12150,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>7</v>
       </c>
@@ -12152,7 +12170,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>8</v>
       </c>
@@ -12175,7 +12193,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>9</v>
       </c>
@@ -12198,7 +12216,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>10</v>
       </c>
@@ -12221,7 +12239,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>11</v>
       </c>
@@ -12244,7 +12262,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>12</v>
       </c>
@@ -12267,7 +12285,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>13</v>
       </c>
@@ -12290,7 +12308,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>14</v>
       </c>
@@ -12313,7 +12331,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>15</v>
       </c>
@@ -12333,7 +12351,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>16</v>
       </c>
@@ -12356,7 +12374,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>17</v>
       </c>
@@ -12379,7 +12397,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>18</v>
       </c>
@@ -12402,7 +12420,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>19</v>
       </c>
@@ -12425,7 +12443,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>20</v>
       </c>
@@ -12445,7 +12463,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>21</v>
       </c>
@@ -12468,7 +12486,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>22</v>
       </c>
@@ -12491,7 +12509,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>23</v>
       </c>
@@ -12514,7 +12532,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>24</v>
       </c>
@@ -12537,7 +12555,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>25</v>
       </c>
@@ -12560,7 +12578,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>26</v>
       </c>
@@ -12583,7 +12601,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>27</v>
       </c>
@@ -12606,7 +12624,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>28</v>
       </c>
@@ -12626,7 +12644,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>29</v>
       </c>
@@ -12646,7 +12664,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>30</v>
       </c>
@@ -12669,7 +12687,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>31</v>
       </c>
@@ -12692,7 +12710,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>32</v>
       </c>
@@ -12715,7 +12733,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>33</v>
       </c>
@@ -12738,7 +12756,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>34</v>
       </c>
@@ -12761,7 +12779,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>35</v>
       </c>
@@ -12784,7 +12802,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>36</v>
       </c>
@@ -12807,7 +12825,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>37</v>
       </c>
@@ -12830,7 +12848,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>38</v>
       </c>
@@ -12853,7 +12871,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>39</v>
       </c>
@@ -12873,7 +12891,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>40</v>
       </c>
@@ -12896,7 +12914,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>41</v>
       </c>
@@ -12919,7 +12937,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>42</v>
       </c>
@@ -12942,7 +12960,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>43</v>
       </c>
@@ -12965,7 +12983,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>44</v>
       </c>
@@ -12985,7 +13003,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>45</v>
       </c>
@@ -13008,7 +13026,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>46</v>
       </c>
@@ -13031,7 +13049,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>47</v>
       </c>
@@ -13054,7 +13072,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>48</v>
       </c>
@@ -13077,7 +13095,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>49</v>
       </c>
@@ -13100,7 +13118,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>50</v>
       </c>
@@ -13120,7 +13138,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>51</v>
       </c>
@@ -13143,7 +13161,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>52</v>
       </c>
@@ -13166,7 +13184,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>53</v>
       </c>
@@ -13189,7 +13207,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>54</v>
       </c>
@@ -13209,7 +13227,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>55</v>
       </c>
@@ -13232,7 +13250,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>56</v>
       </c>
@@ -13255,7 +13273,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>57</v>
       </c>
@@ -13278,7 +13296,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>58</v>
       </c>
@@ -13301,7 +13319,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>0</v>
       </c>
@@ -13324,7 +13342,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1</v>
       </c>
@@ -13347,7 +13365,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2</v>
       </c>
@@ -13370,7 +13388,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>3</v>
       </c>
@@ -13393,7 +13411,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>4</v>
       </c>
@@ -13413,7 +13431,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>5</v>
       </c>
@@ -13436,7 +13454,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>6</v>
       </c>
@@ -13456,7 +13474,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>7</v>
       </c>
@@ -13479,7 +13497,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>8</v>
       </c>
@@ -13499,7 +13517,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>9</v>
       </c>
@@ -13522,7 +13540,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>10</v>
       </c>
@@ -13545,7 +13563,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>11</v>
       </c>
@@ -13568,7 +13586,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>12</v>
       </c>
@@ -13591,7 +13609,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>13</v>
       </c>
@@ -13614,7 +13632,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>14</v>
       </c>
@@ -13637,7 +13655,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>15</v>
       </c>
@@ -13660,7 +13678,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>16</v>
       </c>
@@ -13683,7 +13701,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>17</v>
       </c>
@@ -13706,7 +13724,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>18</v>
       </c>
@@ -13729,7 +13747,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>19</v>
       </c>
@@ -13749,7 +13767,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>20</v>
       </c>
@@ -13772,7 +13790,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>21</v>
       </c>
@@ -13795,7 +13813,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>22</v>
       </c>
@@ -13818,7 +13836,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>23</v>
       </c>
@@ -13838,7 +13856,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>24</v>
       </c>
@@ -13861,7 +13879,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>25</v>
       </c>
@@ -13884,7 +13902,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>26</v>
       </c>
@@ -13907,7 +13925,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>27</v>
       </c>
@@ -13927,7 +13945,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>28</v>
       </c>
@@ -13950,7 +13968,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>29</v>
       </c>
@@ -13973,7 +13991,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>30</v>
       </c>
@@ -13996,7 +14014,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>31</v>
       </c>
@@ -14016,7 +14034,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>32</v>
       </c>
@@ -14039,7 +14057,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>33</v>
       </c>
@@ -14059,7 +14077,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>34</v>
       </c>
@@ -14082,7 +14100,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>35</v>
       </c>
@@ -14105,7 +14123,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>36</v>
       </c>
@@ -14128,7 +14146,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>37</v>
       </c>
@@ -14148,7 +14166,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>38</v>
       </c>
@@ -14171,7 +14189,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>39</v>
       </c>
@@ -14194,7 +14212,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>40</v>
       </c>
@@ -14217,7 +14235,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>41</v>
       </c>
@@ -14237,7 +14255,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>42</v>
       </c>
@@ -14260,7 +14278,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>43</v>
       </c>
@@ -14280,7 +14298,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>44</v>
       </c>
@@ -14303,7 +14321,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>45</v>
       </c>
@@ -14323,7 +14341,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>46</v>
       </c>
@@ -14346,7 +14364,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>47</v>
       </c>
@@ -14369,7 +14387,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>48</v>
       </c>
@@ -14392,7 +14410,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>49</v>
       </c>
@@ -14415,7 +14433,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>50</v>
       </c>
@@ -14435,7 +14453,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>51</v>
       </c>
@@ -14458,7 +14476,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>52</v>
       </c>
@@ -14478,7 +14496,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>53</v>
       </c>
@@ -14501,7 +14519,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>54</v>
       </c>
@@ -14521,7 +14539,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>55</v>
       </c>
@@ -14544,7 +14562,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>56</v>
       </c>
@@ -14567,7 +14585,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>57</v>
       </c>
@@ -14590,7 +14608,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>58</v>
       </c>
@@ -14613,7 +14631,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>59</v>
       </c>
@@ -14636,7 +14654,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>60</v>
       </c>
@@ -14659,7 +14677,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>0</v>
       </c>
@@ -14682,7 +14700,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1</v>
       </c>
@@ -14705,7 +14723,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2</v>
       </c>
@@ -14728,7 +14746,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>3</v>
       </c>
@@ -14748,7 +14766,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>4</v>
       </c>
@@ -14771,7 +14789,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>5</v>
       </c>
@@ -14791,7 +14809,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>6</v>
       </c>
@@ -14814,7 +14832,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>7</v>
       </c>
@@ -14837,7 +14855,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>8</v>
       </c>
@@ -14860,7 +14878,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>9</v>
       </c>
@@ -14883,7 +14901,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>10</v>
       </c>
@@ -14906,7 +14924,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>11</v>
       </c>
@@ -14929,7 +14947,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>12</v>
       </c>
@@ -14952,7 +14970,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>13</v>
       </c>
@@ -14975,7 +14993,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>14</v>
       </c>
@@ -14995,7 +15013,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>15</v>
       </c>
@@ -15018,7 +15036,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>16</v>
       </c>
@@ -15041,7 +15059,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>17</v>
       </c>
@@ -15064,7 +15082,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>18</v>
       </c>
@@ -15084,7 +15102,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>19</v>
       </c>
@@ -15107,7 +15125,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>20</v>
       </c>
@@ -15130,7 +15148,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>21</v>
       </c>
@@ -15153,7 +15171,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>22</v>
       </c>
@@ -15176,7 +15194,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>23</v>
       </c>
@@ -15196,7 +15214,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>24</v>
       </c>
@@ -15219,7 +15237,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>25</v>
       </c>
@@ -15239,7 +15257,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>26</v>
       </c>
@@ -15262,7 +15280,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>27</v>
       </c>
@@ -15282,7 +15300,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>28</v>
       </c>
@@ -15305,7 +15323,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>29</v>
       </c>
@@ -15328,7 +15346,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>30</v>
       </c>
@@ -15351,7 +15369,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>31</v>
       </c>
@@ -15371,7 +15389,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>32</v>
       </c>
@@ -15394,7 +15412,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>33</v>
       </c>
@@ -15417,7 +15435,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>34</v>
       </c>
@@ -15440,7 +15458,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>35</v>
       </c>
@@ -15463,7 +15481,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>36</v>
       </c>
@@ -15486,7 +15504,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>37</v>
       </c>
@@ -15509,7 +15527,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>38</v>
       </c>
@@ -15532,7 +15550,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>39</v>
       </c>
@@ -15555,7 +15573,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>40</v>
       </c>
@@ -15578,7 +15596,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>41</v>
       </c>
@@ -15601,7 +15619,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>42</v>
       </c>
@@ -15624,7 +15642,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>43</v>
       </c>
@@ -15647,7 +15665,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>44</v>
       </c>
@@ -15670,7 +15688,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>45</v>
       </c>
@@ -15693,7 +15711,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>46</v>
       </c>
@@ -15716,7 +15734,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>47</v>
       </c>
@@ -15736,7 +15754,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>48</v>
       </c>
@@ -15759,7 +15777,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>49</v>
       </c>
@@ -15779,7 +15797,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>50</v>
       </c>
@@ -15802,7 +15820,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>51</v>
       </c>
@@ -15822,7 +15840,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>52</v>
       </c>
@@ -15845,7 +15863,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>53</v>
       </c>
@@ -15868,7 +15886,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>54</v>
       </c>
@@ -15888,7 +15906,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>55</v>
       </c>
@@ -15908,7 +15926,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>56</v>
       </c>
@@ -15931,7 +15949,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>57</v>
       </c>
@@ -15954,7 +15972,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>58</v>
       </c>
@@ -15977,7 +15995,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>59</v>
       </c>
@@ -16000,7 +16018,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>60</v>
       </c>
@@ -16023,7 +16041,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>61</v>
       </c>
@@ -16031,7 +16049,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>62</v>
       </c>
@@ -16039,7 +16057,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>63</v>
       </c>
@@ -16047,7 +16065,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>64</v>
       </c>
@@ -16055,7 +16073,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>65</v>
       </c>
@@ -16063,7 +16081,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>66</v>
       </c>
@@ -16071,7 +16089,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>67</v>
       </c>
@@ -16079,7 +16097,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>68</v>
       </c>
@@ -16087,7 +16105,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>69</v>
       </c>
@@ -16095,7 +16113,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>70</v>
       </c>
@@ -16103,7 +16121,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>71</v>
       </c>
@@ -16111,7 +16129,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>72</v>
       </c>
@@ -16119,7 +16137,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>73</v>
       </c>
@@ -16127,7 +16145,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>74</v>
       </c>
@@ -16135,7 +16153,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>75</v>
       </c>
@@ -16143,7 +16161,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>76</v>
       </c>
@@ -16151,7 +16169,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>77</v>
       </c>
@@ -16159,7 +16177,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>0</v>
       </c>
@@ -16182,7 +16200,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>1</v>
       </c>
@@ -16205,7 +16223,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2</v>
       </c>
@@ -16228,7 +16246,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>3</v>
       </c>
@@ -16251,7 +16269,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>4</v>
       </c>
@@ -16271,7 +16289,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>5</v>
       </c>
@@ -16294,7 +16312,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>6</v>
       </c>
@@ -16317,7 +16335,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>7</v>
       </c>
@@ -16340,7 +16358,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>8</v>
       </c>
@@ -16360,7 +16378,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>9</v>
       </c>
@@ -16383,7 +16401,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>10</v>
       </c>
@@ -16406,7 +16424,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>11</v>
       </c>
@@ -16429,7 +16447,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>12</v>
       </c>
@@ -16452,7 +16470,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>13</v>
       </c>
@@ -16475,7 +16493,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>14</v>
       </c>
@@ -16498,7 +16516,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>15</v>
       </c>
@@ -16521,7 +16539,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>16</v>
       </c>
@@ -16544,7 +16562,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>17</v>
       </c>
@@ -16567,7 +16585,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>18</v>
       </c>
@@ -16590,7 +16608,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>19</v>
       </c>
@@ -16613,7 +16631,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>20</v>
       </c>
@@ -16633,7 +16651,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>21</v>
       </c>
@@ -16656,7 +16674,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>22</v>
       </c>
@@ -16676,7 +16694,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>23</v>
       </c>
@@ -16699,7 +16717,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>24</v>
       </c>
@@ -16722,7 +16740,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>25</v>
       </c>
@@ -16742,7 +16760,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>26</v>
       </c>
@@ -16765,7 +16783,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>27</v>
       </c>
@@ -16788,7 +16806,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>28</v>
       </c>
@@ -16811,7 +16829,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>29</v>
       </c>
@@ -16831,7 +16849,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>30</v>
       </c>
@@ -16854,7 +16872,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>31</v>
       </c>
@@ -16874,7 +16892,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>32</v>
       </c>
@@ -16897,7 +16915,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>33</v>
       </c>
@@ -16920,7 +16938,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>34</v>
       </c>
@@ -16943,7 +16961,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>35</v>
       </c>
@@ -16963,7 +16981,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>36</v>
       </c>
@@ -16986,7 +17004,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>37</v>
       </c>
@@ -17006,7 +17024,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>38</v>
       </c>
@@ -17029,7 +17047,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>39</v>
       </c>
@@ -17052,7 +17070,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>40</v>
       </c>
@@ -17072,7 +17090,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>41</v>
       </c>
@@ -17095,7 +17113,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>42</v>
       </c>
@@ -17118,7 +17136,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>43</v>
       </c>
@@ -17138,7 +17156,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>44</v>
       </c>
@@ -17161,7 +17179,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>45</v>
       </c>
@@ -17181,7 +17199,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>46</v>
       </c>
@@ -17204,7 +17222,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>47</v>
       </c>
@@ -17227,7 +17245,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>48</v>
       </c>
@@ -17247,7 +17265,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>49</v>
       </c>
@@ -17270,7 +17288,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>50</v>
       </c>
@@ -17293,7 +17311,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>51</v>
       </c>
@@ -17313,7 +17331,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>52</v>
       </c>
@@ -17336,7 +17354,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>53</v>
       </c>
@@ -17359,7 +17377,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>54</v>
       </c>
@@ -17379,7 +17397,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>55</v>
       </c>
@@ -17402,7 +17420,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>56</v>
       </c>
@@ -17425,7 +17443,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>57</v>
       </c>
@@ -17445,7 +17463,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>58</v>
       </c>
@@ -17465,7 +17483,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>59</v>
       </c>
@@ -17488,7 +17506,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>60</v>
       </c>
@@ -17511,7 +17529,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>61</v>
       </c>
@@ -17534,7 +17552,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>62</v>
       </c>
@@ -17557,7 +17575,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>63</v>
       </c>
@@ -17580,7 +17598,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>0</v>
       </c>
@@ -17603,7 +17621,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>1</v>
       </c>
@@ -17626,7 +17644,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>2</v>
       </c>
@@ -17649,7 +17667,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>3</v>
       </c>
@@ -17672,7 +17690,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>4</v>
       </c>
@@ -17692,7 +17710,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>5</v>
       </c>
@@ -17715,7 +17733,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>6</v>
       </c>
@@ -17738,7 +17756,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>7</v>
       </c>
@@ -17761,7 +17779,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>8</v>
       </c>
@@ -17784,7 +17802,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>9</v>
       </c>
@@ -17807,7 +17825,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>10</v>
       </c>
@@ -17830,7 +17848,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>11</v>
       </c>
@@ -17853,7 +17871,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>12</v>
       </c>
@@ -17873,7 +17891,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>13</v>
       </c>
@@ -17896,7 +17914,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>14</v>
       </c>
@@ -17919,7 +17937,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>15</v>
       </c>
@@ -17939,7 +17957,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>16</v>
       </c>
@@ -17962,7 +17980,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>17</v>
       </c>
@@ -17985,7 +18003,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>18</v>
       </c>
@@ -18008,7 +18026,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>19</v>
       </c>
@@ -18028,7 +18046,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>20</v>
       </c>
@@ -18051,7 +18069,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>21</v>
       </c>
@@ -18074,7 +18092,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>22</v>
       </c>
@@ -18094,7 +18112,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>23</v>
       </c>
@@ -18117,7 +18135,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>24</v>
       </c>
@@ -18137,7 +18155,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>25</v>
       </c>
@@ -18160,7 +18178,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>26</v>
       </c>
@@ -18183,7 +18201,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>27</v>
       </c>
@@ -18206,7 +18224,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>28</v>
       </c>
@@ -18226,7 +18244,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>29</v>
       </c>
@@ -18249,7 +18267,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>30</v>
       </c>
@@ -18272,7 +18290,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>31</v>
       </c>
@@ -18295,7 +18313,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>32</v>
       </c>
@@ -18315,7 +18333,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>33</v>
       </c>
@@ -18338,7 +18356,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>34</v>
       </c>
@@ -18361,7 +18379,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>35</v>
       </c>
@@ -18384,7 +18402,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>36</v>
       </c>
@@ -18407,7 +18425,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>37</v>
       </c>
@@ -18430,7 +18448,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>38</v>
       </c>
@@ -18453,7 +18471,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>39</v>
       </c>
@@ -18476,7 +18494,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>40</v>
       </c>
@@ -18496,7 +18514,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>41</v>
       </c>
@@ -18519,7 +18537,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>42</v>
       </c>
@@ -18539,7 +18557,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>43</v>
       </c>
@@ -18562,7 +18580,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>44</v>
       </c>
@@ -18585,7 +18603,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>45</v>
       </c>
@@ -18608,7 +18626,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>46</v>
       </c>
@@ -18631,7 +18649,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>47</v>
       </c>
@@ -18654,7 +18672,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>48</v>
       </c>
@@ -18674,7 +18692,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>49</v>
       </c>
@@ -18697,7 +18715,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>50</v>
       </c>
@@ -18720,7 +18738,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>51</v>
       </c>
@@ -18740,7 +18758,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>52</v>
       </c>
@@ -18763,7 +18781,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>53</v>
       </c>
@@ -18786,7 +18804,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>54</v>
       </c>
@@ -18809,7 +18827,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>55</v>
       </c>
@@ -18829,7 +18847,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>56</v>
       </c>
@@ -18852,7 +18870,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>57</v>
       </c>
@@ -18875,7 +18893,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>58</v>
       </c>
@@ -18898,7 +18916,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>59</v>
       </c>
@@ -18921,7 +18939,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>60</v>
       </c>
@@ -18944,7 +18962,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>0</v>
       </c>
@@ -18967,7 +18985,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>1</v>
       </c>
@@ -18990,7 +19008,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>2</v>
       </c>
@@ -19013,7 +19031,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>3</v>
       </c>
@@ -19036,7 +19054,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>4</v>
       </c>
@@ -19059,7 +19077,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>5</v>
       </c>
@@ -19082,7 +19100,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>6</v>
       </c>
@@ -19105,7 +19123,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>7</v>
       </c>
@@ -19128,7 +19146,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>8</v>
       </c>
@@ -19151,7 +19169,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>9</v>
       </c>
@@ -19174,7 +19192,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>10</v>
       </c>
@@ -19197,7 +19215,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>11</v>
       </c>
@@ -19220,7 +19238,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>12</v>
       </c>
@@ -19240,7 +19258,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>13</v>
       </c>
@@ -19263,7 +19281,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>14</v>
       </c>
@@ -19283,7 +19301,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>15</v>
       </c>
@@ -19306,7 +19324,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>16</v>
       </c>
@@ -19329,7 +19347,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>17</v>
       </c>
@@ -19352,7 +19370,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>18</v>
       </c>
@@ -19375,7 +19393,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>19</v>
       </c>
@@ -19398,7 +19416,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>20</v>
       </c>
@@ -19421,7 +19439,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>21</v>
       </c>
@@ -19441,7 +19459,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>22</v>
       </c>
@@ -19464,7 +19482,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>23</v>
       </c>
@@ -19487,7 +19505,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>24</v>
       </c>
@@ -19507,7 +19525,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>25</v>
       </c>
@@ -19530,7 +19548,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>26</v>
       </c>
@@ -19553,7 +19571,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>27</v>
       </c>
@@ -19576,7 +19594,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>28</v>
       </c>
@@ -19599,7 +19617,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>29</v>
       </c>
@@ -19622,7 +19640,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>30</v>
       </c>
@@ -19645,7 +19663,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>31</v>
       </c>
@@ -19668,7 +19686,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>32</v>
       </c>
@@ -19691,7 +19709,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>33</v>
       </c>
@@ -19714,7 +19732,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>34</v>
       </c>
@@ -19737,7 +19755,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>35</v>
       </c>
@@ -19757,7 +19775,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>36</v>
       </c>
@@ -19780,7 +19798,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>37</v>
       </c>
@@ -19803,7 +19821,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>38</v>
       </c>
@@ -19826,7 +19844,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>39</v>
       </c>
@@ -19849,7 +19867,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>40</v>
       </c>
@@ -19872,7 +19890,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>41</v>
       </c>
@@ -19895,7 +19913,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>42</v>
       </c>
@@ -19918,7 +19936,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>43</v>
       </c>
@@ -19943,605 +19961,605 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F21" r:id="rId20"/>
-    <hyperlink ref="F22" r:id="rId21"/>
-    <hyperlink ref="F23" r:id="rId22"/>
-    <hyperlink ref="F24" r:id="rId23"/>
-    <hyperlink ref="F25" r:id="rId24"/>
-    <hyperlink ref="F26" r:id="rId25"/>
-    <hyperlink ref="F27" r:id="rId26"/>
-    <hyperlink ref="F28" r:id="rId27"/>
-    <hyperlink ref="F29" r:id="rId28"/>
-    <hyperlink ref="F30" r:id="rId29"/>
-    <hyperlink ref="F31" r:id="rId30"/>
-    <hyperlink ref="F32" r:id="rId31"/>
-    <hyperlink ref="F33" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F35" r:id="rId34"/>
-    <hyperlink ref="F36" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F38" r:id="rId37"/>
-    <hyperlink ref="F39" r:id="rId38"/>
-    <hyperlink ref="F40" r:id="rId39"/>
-    <hyperlink ref="F41" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F43" r:id="rId42"/>
-    <hyperlink ref="F44" r:id="rId43"/>
-    <hyperlink ref="F45" r:id="rId44"/>
-    <hyperlink ref="F46" r:id="rId45"/>
-    <hyperlink ref="F47" r:id="rId46"/>
-    <hyperlink ref="F48" r:id="rId47"/>
-    <hyperlink ref="F49" r:id="rId48"/>
-    <hyperlink ref="F50" r:id="rId49"/>
-    <hyperlink ref="F51" r:id="rId50"/>
-    <hyperlink ref="F52" r:id="rId51"/>
-    <hyperlink ref="F53" r:id="rId52"/>
-    <hyperlink ref="F54" r:id="rId53"/>
-    <hyperlink ref="F55" r:id="rId54"/>
-    <hyperlink ref="F56" r:id="rId55"/>
-    <hyperlink ref="F57" r:id="rId56"/>
-    <hyperlink ref="F58" r:id="rId57"/>
-    <hyperlink ref="F59" r:id="rId58"/>
-    <hyperlink ref="F60" r:id="rId59"/>
-    <hyperlink ref="F61" r:id="rId60"/>
-    <hyperlink ref="F62" r:id="rId61"/>
-    <hyperlink ref="F63" r:id="rId62"/>
-    <hyperlink ref="F64" r:id="rId63"/>
-    <hyperlink ref="F65" r:id="rId64"/>
-    <hyperlink ref="F66" r:id="rId65"/>
-    <hyperlink ref="F67" r:id="rId66"/>
-    <hyperlink ref="F68" r:id="rId67"/>
-    <hyperlink ref="F69" r:id="rId68"/>
-    <hyperlink ref="F70" r:id="rId69"/>
-    <hyperlink ref="F71" r:id="rId70"/>
-    <hyperlink ref="F72" r:id="rId71"/>
-    <hyperlink ref="F73" r:id="rId72"/>
-    <hyperlink ref="F74" r:id="rId73"/>
-    <hyperlink ref="F75" r:id="rId74"/>
-    <hyperlink ref="F76" r:id="rId75"/>
-    <hyperlink ref="F77" r:id="rId76"/>
-    <hyperlink ref="F78" r:id="rId77"/>
-    <hyperlink ref="F79" r:id="rId78"/>
-    <hyperlink ref="F80" r:id="rId79"/>
-    <hyperlink ref="F81" r:id="rId80"/>
-    <hyperlink ref="F82" r:id="rId81"/>
-    <hyperlink ref="F83" r:id="rId82"/>
-    <hyperlink ref="F84" r:id="rId83"/>
-    <hyperlink ref="F85" r:id="rId84"/>
-    <hyperlink ref="F86" r:id="rId85"/>
-    <hyperlink ref="F87" r:id="rId86"/>
-    <hyperlink ref="F88" r:id="rId87"/>
-    <hyperlink ref="F89" r:id="rId88"/>
-    <hyperlink ref="F90" r:id="rId89"/>
-    <hyperlink ref="F91" r:id="rId90"/>
-    <hyperlink ref="F92" r:id="rId91"/>
-    <hyperlink ref="F93" r:id="rId92"/>
-    <hyperlink ref="F94" r:id="rId93"/>
-    <hyperlink ref="F95" r:id="rId94"/>
-    <hyperlink ref="F96" r:id="rId95"/>
-    <hyperlink ref="F97" r:id="rId96"/>
-    <hyperlink ref="F98" r:id="rId97"/>
-    <hyperlink ref="F99" r:id="rId98"/>
-    <hyperlink ref="F100" r:id="rId99"/>
-    <hyperlink ref="F101" r:id="rId100"/>
-    <hyperlink ref="F102" r:id="rId101"/>
-    <hyperlink ref="F103" r:id="rId102"/>
-    <hyperlink ref="F104" r:id="rId103"/>
-    <hyperlink ref="F105" r:id="rId104"/>
-    <hyperlink ref="F106" r:id="rId105"/>
-    <hyperlink ref="F107" r:id="rId106"/>
-    <hyperlink ref="F108" r:id="rId107"/>
-    <hyperlink ref="F109" r:id="rId108"/>
-    <hyperlink ref="F110" r:id="rId109"/>
-    <hyperlink ref="F111" r:id="rId110"/>
-    <hyperlink ref="F112" r:id="rId111"/>
-    <hyperlink ref="F113" r:id="rId112"/>
-    <hyperlink ref="F114" r:id="rId113"/>
-    <hyperlink ref="F115" r:id="rId114"/>
-    <hyperlink ref="F116" r:id="rId115"/>
-    <hyperlink ref="F117" r:id="rId116"/>
-    <hyperlink ref="F118" r:id="rId117"/>
-    <hyperlink ref="F119" r:id="rId118"/>
-    <hyperlink ref="F120" r:id="rId119"/>
-    <hyperlink ref="F121" r:id="rId120"/>
-    <hyperlink ref="F122" r:id="rId121"/>
-    <hyperlink ref="F123" r:id="rId122"/>
-    <hyperlink ref="F124" r:id="rId123"/>
-    <hyperlink ref="F125" r:id="rId124"/>
-    <hyperlink ref="F126" r:id="rId125"/>
-    <hyperlink ref="F127" r:id="rId126"/>
-    <hyperlink ref="F128" r:id="rId127"/>
-    <hyperlink ref="F129" r:id="rId128"/>
-    <hyperlink ref="F130" r:id="rId129"/>
-    <hyperlink ref="F131" r:id="rId130"/>
-    <hyperlink ref="F132" r:id="rId131"/>
-    <hyperlink ref="F133" r:id="rId132"/>
-    <hyperlink ref="F134" r:id="rId133"/>
-    <hyperlink ref="F135" r:id="rId134"/>
-    <hyperlink ref="F136" r:id="rId135"/>
-    <hyperlink ref="F137" r:id="rId136"/>
-    <hyperlink ref="F138" r:id="rId137"/>
-    <hyperlink ref="F139" r:id="rId138"/>
-    <hyperlink ref="F140" r:id="rId139"/>
-    <hyperlink ref="F141" r:id="rId140"/>
-    <hyperlink ref="F142" r:id="rId141"/>
-    <hyperlink ref="F143" r:id="rId142"/>
-    <hyperlink ref="F144" r:id="rId143"/>
-    <hyperlink ref="F145" r:id="rId144"/>
-    <hyperlink ref="F146" r:id="rId145"/>
-    <hyperlink ref="F147" r:id="rId146"/>
-    <hyperlink ref="F148" r:id="rId147"/>
-    <hyperlink ref="F149" r:id="rId148"/>
-    <hyperlink ref="F150" r:id="rId149"/>
-    <hyperlink ref="F151" r:id="rId150"/>
-    <hyperlink ref="F152" r:id="rId151"/>
-    <hyperlink ref="F153" r:id="rId152"/>
-    <hyperlink ref="F154" r:id="rId153"/>
-    <hyperlink ref="F155" r:id="rId154"/>
-    <hyperlink ref="F156" r:id="rId155"/>
-    <hyperlink ref="F157" r:id="rId156"/>
-    <hyperlink ref="F158" r:id="rId157"/>
-    <hyperlink ref="F159" r:id="rId158"/>
-    <hyperlink ref="F160" r:id="rId159"/>
-    <hyperlink ref="F161" r:id="rId160"/>
-    <hyperlink ref="F162" r:id="rId161"/>
-    <hyperlink ref="F163" r:id="rId162"/>
-    <hyperlink ref="F164" r:id="rId163"/>
-    <hyperlink ref="F165" r:id="rId164"/>
-    <hyperlink ref="F166" r:id="rId165"/>
-    <hyperlink ref="F167" r:id="rId166"/>
-    <hyperlink ref="F168" r:id="rId167"/>
-    <hyperlink ref="F169" r:id="rId168"/>
-    <hyperlink ref="F170" r:id="rId169"/>
-    <hyperlink ref="F171" r:id="rId170"/>
-    <hyperlink ref="F172" r:id="rId171"/>
-    <hyperlink ref="F173" r:id="rId172"/>
-    <hyperlink ref="F174" r:id="rId173"/>
-    <hyperlink ref="F175" r:id="rId174"/>
-    <hyperlink ref="F176" r:id="rId175"/>
-    <hyperlink ref="F177" r:id="rId176"/>
-    <hyperlink ref="F178" r:id="rId177"/>
-    <hyperlink ref="F179" r:id="rId178"/>
-    <hyperlink ref="F180" r:id="rId179"/>
-    <hyperlink ref="F181" r:id="rId180"/>
-    <hyperlink ref="F182" r:id="rId181"/>
-    <hyperlink ref="F183" r:id="rId182"/>
-    <hyperlink ref="F184" r:id="rId183"/>
-    <hyperlink ref="F185" r:id="rId184"/>
-    <hyperlink ref="F186" r:id="rId185"/>
-    <hyperlink ref="F187" r:id="rId186"/>
-    <hyperlink ref="F188" r:id="rId187"/>
-    <hyperlink ref="F189" r:id="rId188"/>
-    <hyperlink ref="F190" r:id="rId189"/>
-    <hyperlink ref="F191" r:id="rId190"/>
-    <hyperlink ref="F192" r:id="rId191"/>
-    <hyperlink ref="F193" r:id="rId192"/>
-    <hyperlink ref="F194" r:id="rId193"/>
-    <hyperlink ref="F195" r:id="rId194"/>
-    <hyperlink ref="F196" r:id="rId195"/>
-    <hyperlink ref="F197" r:id="rId196"/>
-    <hyperlink ref="F198" r:id="rId197"/>
-    <hyperlink ref="F199" r:id="rId198"/>
-    <hyperlink ref="F200" r:id="rId199"/>
-    <hyperlink ref="F201" r:id="rId200"/>
-    <hyperlink ref="F202" r:id="rId201"/>
-    <hyperlink ref="F203" r:id="rId202"/>
-    <hyperlink ref="F204" r:id="rId203"/>
-    <hyperlink ref="F205" r:id="rId204"/>
-    <hyperlink ref="F206" r:id="rId205"/>
-    <hyperlink ref="F207" r:id="rId206"/>
-    <hyperlink ref="F245" r:id="rId207"/>
-    <hyperlink ref="F246" r:id="rId208"/>
-    <hyperlink ref="F247" r:id="rId209"/>
-    <hyperlink ref="F248" r:id="rId210"/>
-    <hyperlink ref="F249" r:id="rId211"/>
-    <hyperlink ref="F250" r:id="rId212"/>
-    <hyperlink ref="F251" r:id="rId213"/>
-    <hyperlink ref="F252" r:id="rId214"/>
-    <hyperlink ref="F253" r:id="rId215"/>
-    <hyperlink ref="F254" r:id="rId216"/>
-    <hyperlink ref="F255" r:id="rId217"/>
-    <hyperlink ref="F256" r:id="rId218"/>
-    <hyperlink ref="F257" r:id="rId219"/>
-    <hyperlink ref="F258" r:id="rId220"/>
-    <hyperlink ref="F259" r:id="rId221"/>
-    <hyperlink ref="F260" r:id="rId222"/>
-    <hyperlink ref="F261" r:id="rId223"/>
-    <hyperlink ref="F262" r:id="rId224"/>
-    <hyperlink ref="F263" r:id="rId225"/>
-    <hyperlink ref="F264" r:id="rId226"/>
-    <hyperlink ref="F265" r:id="rId227"/>
-    <hyperlink ref="F266" r:id="rId228"/>
-    <hyperlink ref="F267" r:id="rId229"/>
-    <hyperlink ref="F268" r:id="rId230"/>
-    <hyperlink ref="F269" r:id="rId231"/>
-    <hyperlink ref="F270" r:id="rId232"/>
-    <hyperlink ref="F271" r:id="rId233"/>
-    <hyperlink ref="F272" r:id="rId234"/>
-    <hyperlink ref="F273" r:id="rId235"/>
-    <hyperlink ref="F274" r:id="rId236"/>
-    <hyperlink ref="F275" r:id="rId237"/>
-    <hyperlink ref="F276" r:id="rId238"/>
-    <hyperlink ref="F277" r:id="rId239"/>
-    <hyperlink ref="F278" r:id="rId240"/>
-    <hyperlink ref="F279" r:id="rId241"/>
-    <hyperlink ref="F280" r:id="rId242"/>
-    <hyperlink ref="F281" r:id="rId243"/>
-    <hyperlink ref="F282" r:id="rId244"/>
-    <hyperlink ref="F283" r:id="rId245"/>
-    <hyperlink ref="F284" r:id="rId246"/>
-    <hyperlink ref="F285" r:id="rId247"/>
-    <hyperlink ref="F286" r:id="rId248"/>
-    <hyperlink ref="F287" r:id="rId249"/>
-    <hyperlink ref="F288" r:id="rId250"/>
-    <hyperlink ref="F289" r:id="rId251"/>
-    <hyperlink ref="F290" r:id="rId252"/>
-    <hyperlink ref="F291" r:id="rId253"/>
-    <hyperlink ref="F292" r:id="rId254"/>
-    <hyperlink ref="F293" r:id="rId255"/>
-    <hyperlink ref="F294" r:id="rId256"/>
-    <hyperlink ref="F295" r:id="rId257"/>
-    <hyperlink ref="F296" r:id="rId258"/>
-    <hyperlink ref="F297" r:id="rId259"/>
-    <hyperlink ref="F298" r:id="rId260"/>
-    <hyperlink ref="F299" r:id="rId261"/>
-    <hyperlink ref="F300" r:id="rId262"/>
-    <hyperlink ref="F301" r:id="rId263"/>
-    <hyperlink ref="F302" r:id="rId264"/>
-    <hyperlink ref="F303" r:id="rId265"/>
-    <hyperlink ref="F304" r:id="rId266"/>
-    <hyperlink ref="F305" r:id="rId267"/>
-    <hyperlink ref="F306" r:id="rId268"/>
-    <hyperlink ref="F307" r:id="rId269"/>
-    <hyperlink ref="F308" r:id="rId270"/>
-    <hyperlink ref="F309" r:id="rId271"/>
-    <hyperlink ref="F310" r:id="rId272"/>
-    <hyperlink ref="F311" r:id="rId273"/>
-    <hyperlink ref="F312" r:id="rId274"/>
-    <hyperlink ref="F313" r:id="rId275"/>
-    <hyperlink ref="F314" r:id="rId276"/>
-    <hyperlink ref="F315" r:id="rId277"/>
-    <hyperlink ref="F316" r:id="rId278"/>
-    <hyperlink ref="F317" r:id="rId279"/>
-    <hyperlink ref="F318" r:id="rId280"/>
-    <hyperlink ref="F319" r:id="rId281"/>
-    <hyperlink ref="F320" r:id="rId282"/>
-    <hyperlink ref="F321" r:id="rId283"/>
-    <hyperlink ref="F322" r:id="rId284"/>
-    <hyperlink ref="F323" r:id="rId285"/>
-    <hyperlink ref="F324" r:id="rId286"/>
-    <hyperlink ref="F325" r:id="rId287"/>
-    <hyperlink ref="F326" r:id="rId288"/>
-    <hyperlink ref="F327" r:id="rId289"/>
-    <hyperlink ref="F328" r:id="rId290"/>
-    <hyperlink ref="F329" r:id="rId291"/>
-    <hyperlink ref="F330" r:id="rId292"/>
-    <hyperlink ref="F331" r:id="rId293"/>
-    <hyperlink ref="F332" r:id="rId294"/>
-    <hyperlink ref="F333" r:id="rId295"/>
-    <hyperlink ref="F334" r:id="rId296"/>
-    <hyperlink ref="F335" r:id="rId297"/>
-    <hyperlink ref="F336" r:id="rId298"/>
-    <hyperlink ref="F337" r:id="rId299"/>
-    <hyperlink ref="F338" r:id="rId300"/>
-    <hyperlink ref="F339" r:id="rId301"/>
-    <hyperlink ref="F340" r:id="rId302"/>
-    <hyperlink ref="F341" r:id="rId303"/>
-    <hyperlink ref="F342" r:id="rId304"/>
-    <hyperlink ref="F343" r:id="rId305"/>
-    <hyperlink ref="F344" r:id="rId306"/>
-    <hyperlink ref="F345" r:id="rId307"/>
-    <hyperlink ref="F346" r:id="rId308"/>
-    <hyperlink ref="F347" r:id="rId309"/>
-    <hyperlink ref="F348" r:id="rId310"/>
-    <hyperlink ref="F349" r:id="rId311"/>
-    <hyperlink ref="F350" r:id="rId312"/>
-    <hyperlink ref="F351" r:id="rId313"/>
-    <hyperlink ref="F352" r:id="rId314"/>
-    <hyperlink ref="F353" r:id="rId315"/>
-    <hyperlink ref="F354" r:id="rId316"/>
-    <hyperlink ref="F355" r:id="rId317"/>
-    <hyperlink ref="F356" r:id="rId318"/>
-    <hyperlink ref="F357" r:id="rId319"/>
-    <hyperlink ref="F358" r:id="rId320"/>
-    <hyperlink ref="F359" r:id="rId321"/>
-    <hyperlink ref="F360" r:id="rId322"/>
-    <hyperlink ref="F361" r:id="rId323"/>
-    <hyperlink ref="F362" r:id="rId324"/>
-    <hyperlink ref="F363" r:id="rId325"/>
-    <hyperlink ref="F364" r:id="rId326"/>
-    <hyperlink ref="F365" r:id="rId327"/>
-    <hyperlink ref="F366" r:id="rId328"/>
-    <hyperlink ref="F367" r:id="rId329"/>
-    <hyperlink ref="F368" r:id="rId330"/>
-    <hyperlink ref="F369" r:id="rId331"/>
-    <hyperlink ref="F370" r:id="rId332"/>
-    <hyperlink ref="F371" r:id="rId333"/>
-    <hyperlink ref="F372" r:id="rId334"/>
-    <hyperlink ref="F373" r:id="rId335"/>
-    <hyperlink ref="F374" r:id="rId336"/>
-    <hyperlink ref="F375" r:id="rId337"/>
-    <hyperlink ref="F376" r:id="rId338"/>
-    <hyperlink ref="F377" r:id="rId339"/>
-    <hyperlink ref="F378" r:id="rId340"/>
-    <hyperlink ref="F379" r:id="rId341"/>
-    <hyperlink ref="F380" r:id="rId342"/>
-    <hyperlink ref="F381" r:id="rId343"/>
-    <hyperlink ref="F382" r:id="rId344"/>
-    <hyperlink ref="F383" r:id="rId345"/>
-    <hyperlink ref="F384" r:id="rId346"/>
-    <hyperlink ref="F385" r:id="rId347"/>
-    <hyperlink ref="F386" r:id="rId348"/>
-    <hyperlink ref="F387" r:id="rId349"/>
-    <hyperlink ref="F388" r:id="rId350"/>
-    <hyperlink ref="F389" r:id="rId351"/>
-    <hyperlink ref="F390" r:id="rId352"/>
-    <hyperlink ref="F391" r:id="rId353"/>
-    <hyperlink ref="F392" r:id="rId354"/>
-    <hyperlink ref="F393" r:id="rId355"/>
-    <hyperlink ref="F394" r:id="rId356"/>
-    <hyperlink ref="F395" r:id="rId357"/>
-    <hyperlink ref="F396" r:id="rId358"/>
-    <hyperlink ref="F397" r:id="rId359"/>
-    <hyperlink ref="F398" r:id="rId360"/>
-    <hyperlink ref="F399" r:id="rId361"/>
-    <hyperlink ref="F400" r:id="rId362"/>
-    <hyperlink ref="F401" r:id="rId363"/>
-    <hyperlink ref="F402" r:id="rId364"/>
-    <hyperlink ref="F403" r:id="rId365"/>
-    <hyperlink ref="F404" r:id="rId366"/>
-    <hyperlink ref="F405" r:id="rId367"/>
-    <hyperlink ref="F406" r:id="rId368"/>
-    <hyperlink ref="F407" r:id="rId369"/>
-    <hyperlink ref="F408" r:id="rId370"/>
-    <hyperlink ref="F409" r:id="rId371"/>
-    <hyperlink ref="F410" r:id="rId372"/>
-    <hyperlink ref="F411" r:id="rId373"/>
-    <hyperlink ref="F412" r:id="rId374"/>
-    <hyperlink ref="F413" r:id="rId375"/>
-    <hyperlink ref="F414" r:id="rId376"/>
-    <hyperlink ref="F415" r:id="rId377"/>
-    <hyperlink ref="F416" r:id="rId378"/>
-    <hyperlink ref="F417" r:id="rId379"/>
-    <hyperlink ref="F418" r:id="rId380"/>
-    <hyperlink ref="F419" r:id="rId381"/>
-    <hyperlink ref="F420" r:id="rId382"/>
-    <hyperlink ref="F421" r:id="rId383"/>
-    <hyperlink ref="F422" r:id="rId384"/>
-    <hyperlink ref="F423" r:id="rId385"/>
-    <hyperlink ref="F424" r:id="rId386"/>
-    <hyperlink ref="F425" r:id="rId387"/>
-    <hyperlink ref="F426" r:id="rId388"/>
-    <hyperlink ref="F427" r:id="rId389"/>
-    <hyperlink ref="F428" r:id="rId390"/>
-    <hyperlink ref="F429" r:id="rId391"/>
-    <hyperlink ref="F430" r:id="rId392"/>
-    <hyperlink ref="F431" r:id="rId393"/>
-    <hyperlink ref="F432" r:id="rId394"/>
-    <hyperlink ref="F433" r:id="rId395"/>
-    <hyperlink ref="F434" r:id="rId396"/>
-    <hyperlink ref="F435" r:id="rId397"/>
-    <hyperlink ref="F436" r:id="rId398"/>
-    <hyperlink ref="F437" r:id="rId399"/>
-    <hyperlink ref="F438" r:id="rId400"/>
-    <hyperlink ref="F439" r:id="rId401"/>
-    <hyperlink ref="F440" r:id="rId402"/>
-    <hyperlink ref="F441" r:id="rId403"/>
-    <hyperlink ref="F442" r:id="rId404"/>
-    <hyperlink ref="F443" r:id="rId405"/>
-    <hyperlink ref="F444" r:id="rId406"/>
-    <hyperlink ref="F445" r:id="rId407"/>
-    <hyperlink ref="F446" r:id="rId408"/>
-    <hyperlink ref="F447" r:id="rId409"/>
-    <hyperlink ref="F448" r:id="rId410"/>
-    <hyperlink ref="F449" r:id="rId411"/>
-    <hyperlink ref="F450" r:id="rId412"/>
-    <hyperlink ref="F451" r:id="rId413"/>
-    <hyperlink ref="F452" r:id="rId414"/>
-    <hyperlink ref="F453" r:id="rId415"/>
-    <hyperlink ref="F454" r:id="rId416"/>
-    <hyperlink ref="F455" r:id="rId417"/>
-    <hyperlink ref="F456" r:id="rId418"/>
-    <hyperlink ref="F457" r:id="rId419"/>
-    <hyperlink ref="F458" r:id="rId420"/>
-    <hyperlink ref="F459" r:id="rId421"/>
-    <hyperlink ref="F460" r:id="rId422"/>
-    <hyperlink ref="F461" r:id="rId423"/>
-    <hyperlink ref="F462" r:id="rId424"/>
-    <hyperlink ref="F463" r:id="rId425"/>
-    <hyperlink ref="F464" r:id="rId426"/>
-    <hyperlink ref="F465" r:id="rId427"/>
-    <hyperlink ref="F466" r:id="rId428"/>
-    <hyperlink ref="F467" r:id="rId429"/>
-    <hyperlink ref="F468" r:id="rId430"/>
-    <hyperlink ref="F486" r:id="rId431"/>
-    <hyperlink ref="F487" r:id="rId432"/>
-    <hyperlink ref="F488" r:id="rId433"/>
-    <hyperlink ref="F489" r:id="rId434"/>
-    <hyperlink ref="F490" r:id="rId435"/>
-    <hyperlink ref="F491" r:id="rId436"/>
-    <hyperlink ref="F492" r:id="rId437"/>
-    <hyperlink ref="F493" r:id="rId438"/>
-    <hyperlink ref="F494" r:id="rId439"/>
-    <hyperlink ref="F495" r:id="rId440"/>
-    <hyperlink ref="F496" r:id="rId441"/>
-    <hyperlink ref="F497" r:id="rId442"/>
-    <hyperlink ref="F498" r:id="rId443"/>
-    <hyperlink ref="F499" r:id="rId444"/>
-    <hyperlink ref="F500" r:id="rId445"/>
-    <hyperlink ref="F501" r:id="rId446"/>
-    <hyperlink ref="F502" r:id="rId447"/>
-    <hyperlink ref="F503" r:id="rId448"/>
-    <hyperlink ref="F504" r:id="rId449"/>
-    <hyperlink ref="F505" r:id="rId450"/>
-    <hyperlink ref="F506" r:id="rId451"/>
-    <hyperlink ref="F507" r:id="rId452"/>
-    <hyperlink ref="F508" r:id="rId453"/>
-    <hyperlink ref="F509" r:id="rId454"/>
-    <hyperlink ref="F510" r:id="rId455"/>
-    <hyperlink ref="F511" r:id="rId456"/>
-    <hyperlink ref="F512" r:id="rId457"/>
-    <hyperlink ref="F513" r:id="rId458"/>
-    <hyperlink ref="F514" r:id="rId459"/>
-    <hyperlink ref="F515" r:id="rId460"/>
-    <hyperlink ref="F516" r:id="rId461"/>
-    <hyperlink ref="F517" r:id="rId462"/>
-    <hyperlink ref="F518" r:id="rId463"/>
-    <hyperlink ref="F519" r:id="rId464"/>
-    <hyperlink ref="F520" r:id="rId465"/>
-    <hyperlink ref="F521" r:id="rId466"/>
-    <hyperlink ref="F522" r:id="rId467"/>
-    <hyperlink ref="F523" r:id="rId468"/>
-    <hyperlink ref="F524" r:id="rId469"/>
-    <hyperlink ref="F525" r:id="rId470"/>
-    <hyperlink ref="F526" r:id="rId471"/>
-    <hyperlink ref="F527" r:id="rId472"/>
-    <hyperlink ref="F528" r:id="rId473"/>
-    <hyperlink ref="F529" r:id="rId474"/>
-    <hyperlink ref="F530" r:id="rId475"/>
-    <hyperlink ref="F531" r:id="rId476"/>
-    <hyperlink ref="F532" r:id="rId477"/>
-    <hyperlink ref="F533" r:id="rId478"/>
-    <hyperlink ref="F534" r:id="rId479"/>
-    <hyperlink ref="F535" r:id="rId480"/>
-    <hyperlink ref="F536" r:id="rId481"/>
-    <hyperlink ref="F537" r:id="rId482"/>
-    <hyperlink ref="F538" r:id="rId483"/>
-    <hyperlink ref="F539" r:id="rId484"/>
-    <hyperlink ref="F540" r:id="rId485"/>
-    <hyperlink ref="F541" r:id="rId486"/>
-    <hyperlink ref="F542" r:id="rId487"/>
-    <hyperlink ref="F543" r:id="rId488"/>
-    <hyperlink ref="F544" r:id="rId489"/>
-    <hyperlink ref="F545" r:id="rId490"/>
-    <hyperlink ref="F546" r:id="rId491"/>
-    <hyperlink ref="F547" r:id="rId492"/>
-    <hyperlink ref="F548" r:id="rId493"/>
-    <hyperlink ref="F549" r:id="rId494"/>
-    <hyperlink ref="F550" r:id="rId495"/>
-    <hyperlink ref="F551" r:id="rId496"/>
-    <hyperlink ref="F552" r:id="rId497"/>
-    <hyperlink ref="F553" r:id="rId498"/>
-    <hyperlink ref="F554" r:id="rId499"/>
-    <hyperlink ref="F555" r:id="rId500"/>
-    <hyperlink ref="F556" r:id="rId501"/>
-    <hyperlink ref="F557" r:id="rId502"/>
-    <hyperlink ref="F558" r:id="rId503"/>
-    <hyperlink ref="F559" r:id="rId504"/>
-    <hyperlink ref="F560" r:id="rId505"/>
-    <hyperlink ref="F561" r:id="rId506"/>
-    <hyperlink ref="F562" r:id="rId507"/>
-    <hyperlink ref="F563" r:id="rId508"/>
-    <hyperlink ref="F564" r:id="rId509"/>
-    <hyperlink ref="F565" r:id="rId510"/>
-    <hyperlink ref="F566" r:id="rId511"/>
-    <hyperlink ref="F567" r:id="rId512"/>
-    <hyperlink ref="F568" r:id="rId513"/>
-    <hyperlink ref="F569" r:id="rId514"/>
-    <hyperlink ref="F570" r:id="rId515"/>
-    <hyperlink ref="F571" r:id="rId516"/>
-    <hyperlink ref="F572" r:id="rId517"/>
-    <hyperlink ref="F573" r:id="rId518"/>
-    <hyperlink ref="F574" r:id="rId519"/>
-    <hyperlink ref="F575" r:id="rId520"/>
-    <hyperlink ref="F576" r:id="rId521"/>
-    <hyperlink ref="F577" r:id="rId522"/>
-    <hyperlink ref="F578" r:id="rId523"/>
-    <hyperlink ref="F579" r:id="rId524"/>
-    <hyperlink ref="F580" r:id="rId525"/>
-    <hyperlink ref="F581" r:id="rId526"/>
-    <hyperlink ref="F582" r:id="rId527"/>
-    <hyperlink ref="F583" r:id="rId528"/>
-    <hyperlink ref="F584" r:id="rId529"/>
-    <hyperlink ref="F585" r:id="rId530"/>
-    <hyperlink ref="F586" r:id="rId531"/>
-    <hyperlink ref="F587" r:id="rId532"/>
-    <hyperlink ref="F588" r:id="rId533"/>
-    <hyperlink ref="F589" r:id="rId534"/>
-    <hyperlink ref="F590" r:id="rId535"/>
-    <hyperlink ref="F591" r:id="rId536"/>
-    <hyperlink ref="F592" r:id="rId537"/>
-    <hyperlink ref="F593" r:id="rId538"/>
-    <hyperlink ref="F594" r:id="rId539"/>
-    <hyperlink ref="F595" r:id="rId540"/>
-    <hyperlink ref="F596" r:id="rId541"/>
-    <hyperlink ref="F597" r:id="rId542"/>
-    <hyperlink ref="F598" r:id="rId543"/>
-    <hyperlink ref="F599" r:id="rId544"/>
-    <hyperlink ref="F600" r:id="rId545"/>
-    <hyperlink ref="F601" r:id="rId546"/>
-    <hyperlink ref="F602" r:id="rId547"/>
-    <hyperlink ref="F603" r:id="rId548"/>
-    <hyperlink ref="F604" r:id="rId549"/>
-    <hyperlink ref="F605" r:id="rId550"/>
-    <hyperlink ref="F606" r:id="rId551"/>
-    <hyperlink ref="F607" r:id="rId552"/>
-    <hyperlink ref="F608" r:id="rId553"/>
-    <hyperlink ref="F609" r:id="rId554"/>
-    <hyperlink ref="F610" r:id="rId555"/>
-    <hyperlink ref="F611" r:id="rId556"/>
-    <hyperlink ref="F612" r:id="rId557"/>
-    <hyperlink ref="F613" r:id="rId558"/>
-    <hyperlink ref="F614" r:id="rId559"/>
-    <hyperlink ref="F615" r:id="rId560"/>
-    <hyperlink ref="F616" r:id="rId561"/>
-    <hyperlink ref="F617" r:id="rId562"/>
-    <hyperlink ref="F618" r:id="rId563"/>
-    <hyperlink ref="F619" r:id="rId564"/>
-    <hyperlink ref="F620" r:id="rId565"/>
-    <hyperlink ref="F621" r:id="rId566"/>
-    <hyperlink ref="F622" r:id="rId567"/>
-    <hyperlink ref="F623" r:id="rId568"/>
-    <hyperlink ref="F624" r:id="rId569"/>
-    <hyperlink ref="F625" r:id="rId570"/>
-    <hyperlink ref="F626" r:id="rId571"/>
-    <hyperlink ref="F627" r:id="rId572"/>
-    <hyperlink ref="F628" r:id="rId573"/>
-    <hyperlink ref="F629" r:id="rId574"/>
-    <hyperlink ref="F630" r:id="rId575"/>
-    <hyperlink ref="F631" r:id="rId576"/>
-    <hyperlink ref="F632" r:id="rId577"/>
-    <hyperlink ref="F633" r:id="rId578"/>
-    <hyperlink ref="F634" r:id="rId579"/>
-    <hyperlink ref="F635" r:id="rId580"/>
-    <hyperlink ref="F636" r:id="rId581"/>
-    <hyperlink ref="F637" r:id="rId582"/>
-    <hyperlink ref="F638" r:id="rId583"/>
-    <hyperlink ref="F639" r:id="rId584"/>
-    <hyperlink ref="F640" r:id="rId585"/>
-    <hyperlink ref="F641" r:id="rId586"/>
-    <hyperlink ref="F642" r:id="rId587"/>
-    <hyperlink ref="F643" r:id="rId588"/>
-    <hyperlink ref="F644" r:id="rId589"/>
-    <hyperlink ref="F645" r:id="rId590"/>
-    <hyperlink ref="F646" r:id="rId591"/>
-    <hyperlink ref="F647" r:id="rId592"/>
-    <hyperlink ref="F648" r:id="rId593"/>
-    <hyperlink ref="F649" r:id="rId594"/>
-    <hyperlink ref="F650" r:id="rId595"/>
-    <hyperlink ref="F651" r:id="rId596"/>
-    <hyperlink ref="F652" r:id="rId597"/>
-    <hyperlink ref="F653" r:id="rId598"/>
-    <hyperlink ref="F654" r:id="rId599"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="F38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="F44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="F46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="F49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="F74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="F88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="F98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="F100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="F108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="F112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="F116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="F120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="F122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="F123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="F124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="F125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="F127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="F128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="F129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="F131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="F132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="F133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="F134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="F135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="F136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="F137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="F138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="F139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="F140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="F141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="F142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="F143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="F144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="F145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="F146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="F147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="F148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="F149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="F150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="F151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="F152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="F153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="F154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="F155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="F156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="F157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="F158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="F159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="F160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="F161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="F162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="F163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="F164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="F165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="F166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="F167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="F168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="F169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="F170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="F171" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="F172" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="F173" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="F174" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="F175" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="F176" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="F177" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="F178" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="F179" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="F180" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="F181" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="F182" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="F183" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="F184" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="F185" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="F186" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="F187" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="F188" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="F189" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="F190" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="F191" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="F192" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="F193" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="F194" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="F195" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="F196" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="F197" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="F198" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="F199" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="F200" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="F201" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="F202" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="F203" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="F204" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="F205" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="F206" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="F207" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="F245" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="F246" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="F247" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="F248" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="F249" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="F250" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="F251" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="F252" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="F253" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="F254" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="F255" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="F256" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="F257" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="F258" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="F259" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="F260" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="F261" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="F262" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="F263" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="F264" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="F265" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="F266" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="F267" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="F268" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="F269" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="F270" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="F271" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="F272" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="F273" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="F274" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="F275" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="F276" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="F277" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="F278" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="F279" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="F280" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="F281" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="F282" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="F283" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="F284" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="F285" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="F286" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="F287" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="F288" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="F289" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="F290" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="F291" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="F292" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="F293" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="F294" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="F295" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="F296" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="F297" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="F298" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="F299" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="F300" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="F301" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="F302" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="F303" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="F304" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="F305" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="F306" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="F307" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="F308" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="F309" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="F310" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="F311" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="F312" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="F313" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="F314" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="F315" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="F316" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="F317" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="F318" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="F319" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="F320" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="F321" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="F322" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="F323" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="F324" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="F325" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="F326" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="F327" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="F328" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="F329" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="F330" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="F331" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="F332" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="F333" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="F334" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="F335" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="F336" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="F337" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="F338" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="F339" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="F340" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="F341" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="F342" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="F343" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="F344" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="F345" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="F346" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="F347" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="F348" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="F349" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="F350" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="F351" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="F352" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="F353" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="F354" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="F355" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="F356" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="F357" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="F358" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="F359" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="F360" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="F361" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="F362" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="F363" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="F364" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="F365" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="F366" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="F367" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="F368" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="F369" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="F370" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="F371" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="F372" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="F373" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="F374" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="F375" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="F376" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="F377" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="F378" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="F379" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="F380" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="F381" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="F382" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="F383" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="F384" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="F385" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="F386" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="F387" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="F388" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="F389" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="F390" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="F391" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="F392" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="F393" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="F394" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="F395" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="F396" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="F397" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="F398" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="F399" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="F400" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="F401" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="F402" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="F403" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="F404" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="F405" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="F406" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="F407" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="F408" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="F409" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="F410" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="F411" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="F412" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="F413" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="F414" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="F415" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="F416" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="F417" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="F418" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="F419" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="F420" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="F421" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="F422" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="F423" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="F424" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="F425" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="F426" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="F427" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="F428" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="F429" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="F430" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="F431" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="F432" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="F433" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="F434" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="F435" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="F436" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="F437" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="F438" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="F439" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="F440" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="F441" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="F442" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="F443" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="F444" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="F445" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="F446" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="F447" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="F448" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="F449" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="F450" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="F451" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="F452" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="F453" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="F454" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="F455" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="F456" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="F457" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="F458" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="F459" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="F460" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="F461" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="F462" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="F463" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="F464" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="F465" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="F466" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="F467" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="F468" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="F486" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="F487" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="F488" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="F489" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="F490" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="F491" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="F492" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="F493" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="F494" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="F495" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="F496" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="F497" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="F498" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="F499" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="F500" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="F501" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="F502" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="F503" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="F504" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="F505" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="F506" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="F507" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="F508" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="F509" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="F510" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="F511" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="F512" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="F513" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="F514" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="F515" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="F516" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="F517" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="F518" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="F519" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="F520" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="F521" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="F522" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="F523" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="F524" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="F525" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="F526" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="F527" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="F528" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="F529" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="F530" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="F531" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="F532" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="F533" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="F534" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="F535" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="F536" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="F537" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="F538" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="F539" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="F540" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="F541" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="F542" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="F543" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="F544" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="F545" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="F546" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="F547" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="F548" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="F549" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="F550" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="F551" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="F552" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="F553" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="F554" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="F555" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="F556" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="F557" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="F558" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="F559" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="F560" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="F561" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="F562" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="F563" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="F564" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="F565" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="F566" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="F567" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="F568" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="F569" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="F570" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="F571" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="F572" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="F573" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="F574" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="F575" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="F576" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="F577" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="F578" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="F579" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="F580" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="F581" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="F582" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="F583" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="F584" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="F585" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="F586" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="F587" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="F588" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="F589" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="F590" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="F591" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="F592" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="F593" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="F594" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="F595" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="F596" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="F597" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="F598" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="F599" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="F600" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="F601" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="F602" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="F603" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="F604" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="F605" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="F606" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="F607" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="F608" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="F609" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="F610" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="F611" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="F612" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="F613" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="F614" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="F615" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="F616" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="F617" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="F618" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="F619" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="F620" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="F621" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="F622" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="F623" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="F624" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="F625" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="F626" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="F627" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="F628" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="F629" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="F630" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="F631" r:id="rId576" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="F632" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="F633" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="F634" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="F635" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="F636" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="F637" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="F638" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="F639" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="F640" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="F641" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="F642" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="F643" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="F644" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="F645" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="F646" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="F647" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="F648" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="F649" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="F650" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="F651" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="F652" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="F653" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="F654" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
